--- a/Chandrashekaran-annotations/KLAC_Q4_2014.xlsx
+++ b/Chandrashekaran-annotations/KLAC_Q4_2014.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145EA7E-E9DF-4143-A14E-CE8BADBF5D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCDDB8-E68B-46BE-B64E-AAB1CB251FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -663,8 +663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,6 +728,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -769,6 +788,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -797,6 +834,24 @@
       <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -839,6 +894,24 @@
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -895,6 +968,24 @@
       <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -909,6 +1000,24 @@
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -923,8 +1032,26 @@
       <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -938,7 +1065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -952,7 +1079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -965,8 +1092,26 @@
       <c r="D19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -980,7 +1125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -993,8 +1138,26 @@
       <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1008,7 +1171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1022,7 +1185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1036,7 +1199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1050,7 +1213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -1064,7 +1227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1078,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1092,7 +1255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1106,7 +1269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1120,7 +1283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -1131,7 +1294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1144,8 +1307,26 @@
       <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1158,8 +1339,26 @@
       <c r="D33" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>80</v>
       </c>
@@ -1172,8 +1371,26 @@
       <c r="D34" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>80</v>
       </c>
@@ -1186,8 +1403,26 @@
       <c r="D35" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -1200,8 +1435,26 @@
       <c r="D36" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1213,6 +1466,24 @@
       </c>
       <c r="D37" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
